--- a/Data/Data_Dictionary.xlsx
+++ b/Data/Data_Dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melekmizher/Desktop/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melekmizher/Documents/GitHub/Mizher_MSDS455_Assignment3_HierarchicalData/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63067C71-7324-804A-9B78-1F5BDA10BB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED36EFEB-A50C-044F-AD90-DB35DEA5D8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17600" yWindow="8120" windowWidth="28040" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Column_or_Row_Name</t>
   </si>
@@ -28,22 +28,52 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>Column_or_Row_Long_Name</t>
-  </si>
-  <si>
     <t>Data_Type</t>
   </si>
   <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>Uninsured Count</t>
-  </si>
-  <si>
-    <t>Total of Population Uninsured for the Entirety of 2021</t>
-  </si>
-  <si>
-    <t>Uninsured</t>
+    <t>usp_category</t>
+  </si>
+  <si>
+    <t>usp_class</t>
+  </si>
+  <si>
+    <t>usp_drug</t>
+  </si>
+  <si>
+    <t>kegg_id_drug</t>
+  </si>
+  <si>
+    <t>drug_example</t>
+  </si>
+  <si>
+    <t>kegg_id_drug_example</t>
+  </si>
+  <si>
+    <t>nomenclature</t>
+  </si>
+  <si>
+    <t>USP Drug Classification Class (Second Level)</t>
+  </si>
+  <si>
+    <t>USP Drug Classification Drug Name (Third Level)</t>
+  </si>
+  <si>
+    <t>USP Drug Classification Drug Variations (FourthLevel)</t>
+  </si>
+  <si>
+    <t>USP Drug Classification Category (First Level)</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Integrated System Identifier ID for Drug Name</t>
+  </si>
+  <si>
+    <t>Integrated System Identifier ID for Drug Variation</t>
+  </si>
+  <si>
+    <t>Nomenclature of Procedence (Japan/EU/USA)</t>
   </si>
 </sst>
 </file>
@@ -892,7 +922,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="226" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -905,7 +935,7 @@
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,34 +945,91 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
     </row>
   </sheetData>
